--- a/media/profile/generated_files/Invigilators_List-ayush.xlsx
+++ b/media/profile/generated_files/Invigilators_List-ayush.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,262 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admininv2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12346</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pkr</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admininv3@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12347</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admininv4@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12348</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pkr</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admininv5@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12349</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>admininv6@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pkr</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>admininv7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12351</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>admininv8@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12352</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pkr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>admin inv 9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>admininv9@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12353</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ktm</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
